--- a/results/partialCoop_EUOnly_20statRateCond_withForeign.xlsx
+++ b/results/partialCoop_EUOnly_20statRateCond_withForeign.xlsx
@@ -902,13 +902,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G14" t="n">
-        <v>1012330861.379539</v>
+        <v>1012229777.790867</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4626619681.961108</v>
+        <v>4626518598.372436</v>
       </c>
     </row>
     <row r="15">
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G16" t="n">
-        <v>948582845.0844344</v>
+        <v>948406241.0479301</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5563645806.667103</v>
+        <v>5253651076.881853</v>
       </c>
     </row>
     <row r="17">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>38176313.27970559</v>
+        <v>38166373.31036833</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>66986741.31437662</v>
+        <v>66976801.34503936</v>
       </c>
     </row>
     <row r="22">
@@ -2021,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G48" t="n">
-        <v>12215925.46382544</v>
+        <v>12213641.90515367</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>320319893.8648471</v>
+        <v>320211728.1214838</v>
       </c>
     </row>
     <row r="49">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D49" t="n">
         <v>230335606.2153436</v>
@@ -2054,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G49" t="n">
-        <v>355574784.5052015</v>
+        <v>355495477.7358794</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>668427156.6916001</v>
+        <v>668318361.1272842</v>
       </c>
     </row>
     <row r="50">
@@ -2090,13 +2090,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G50" t="n">
-        <v>3751526692.304566</v>
+        <v>3750855035.363285</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>24143003705.71392</v>
+        <v>24142332048.77264</v>
       </c>
     </row>
     <row r="51">
@@ -2123,13 +2123,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G51" t="n">
-        <v>360963584.8737994</v>
+        <v>360917709.6466923</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>4096237290.732729</v>
+        <v>4096191415.505622</v>
       </c>
     </row>
     <row r="52">
@@ -2288,13 +2288,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G56" t="n">
-        <v>1525220884.847355</v>
+        <v>1524951253.118875</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>6195360354.088149</v>
+        <v>6195090722.35967</v>
       </c>
     </row>
     <row r="57">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D57" t="n">
         <v>8409755.638419209</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G57" t="n">
-        <v>11157767.34287199</v>
+        <v>11154805.3577375</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>126869195.0315292</v>
+        <v>126866232.6418836</v>
       </c>
     </row>
     <row r="58">
@@ -2420,13 +2420,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G60" t="n">
-        <v>147302245.1989306</v>
+        <v>147267851.9083706</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1780140174.900491</v>
+        <v>1780105781.609931</v>
       </c>
     </row>
     <row r="61">
@@ -2519,13 +2519,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G63" t="n">
-        <v>3349229815.896573</v>
+        <v>3348800326.493727</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>11984444773.5334</v>
+        <v>11984015284.13056</v>
       </c>
     </row>
     <row r="64">
@@ -2816,13 +2816,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G72" t="n">
-        <v>86485076.99041085</v>
+        <v>86465964.13759652</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>312554643.2700252</v>
+        <v>312535530.4172108</v>
       </c>
     </row>
     <row r="73">
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>40697446.063368</v>
+        <v>40687861.68635616</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>74788534.59510088</v>
+        <v>74778950.21808904</v>
       </c>
     </row>
     <row r="81">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D82" t="n">
         <v>150448858.6162017</v>
@@ -3143,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G82" t="n">
-        <v>217866730.0774973</v>
+        <v>217820948.4122826</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1020684913.81752</v>
+        <v>1020607897.076879</v>
       </c>
     </row>
     <row r="83">
@@ -3278,13 +3278,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G86" t="n">
-        <v>1881093019.581881</v>
+        <v>1880799617.814565</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>18417505944.61082</v>
+        <v>18417212542.84351</v>
       </c>
     </row>
     <row r="87">
@@ -3443,13 +3443,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G91" t="n">
-        <v>2289607052.361454</v>
+        <v>2289301097.180819</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>8915339836.8325</v>
+        <v>8915033881.651867</v>
       </c>
     </row>
     <row r="92">
@@ -4037,13 +4037,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G109" t="n">
-        <v>30350798.67764014</v>
+        <v>30346833.27255451</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>69248245.36299437</v>
+        <v>69244279.95790875</v>
       </c>
     </row>
     <row r="110">
@@ -4070,13 +4070,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G110" t="n">
-        <v>688341835.5483851</v>
+        <v>688269390.5038058</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>8345531394.19025</v>
+        <v>8345458949.145671</v>
       </c>
     </row>
     <row r="111">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D111" t="n">
         <v>26010754.65499776</v>
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G111" t="n">
-        <v>35265937.02711345</v>
+        <v>35263743.25834904</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>225676584.1143845</v>
+        <v>225674359.6231414</v>
       </c>
     </row>
     <row r="112">
@@ -4463,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G122" t="n">
-        <v>28706281.31641856</v>
+        <v>28699784.62882097</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>188852975.313475</v>
+        <v>188828208.5603384</v>
       </c>
     </row>
     <row r="123">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D134" t="n">
         <v>1983589528.839027</v>
@@ -4862,13 +4862,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G134" t="n">
-        <v>2853972940.518958</v>
+        <v>2853656252.862597</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>10558604986.24572</v>
+        <v>9346036037.336426</v>
       </c>
     </row>
     <row r="135">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D148" t="n">
         <v>658415208.1593025</v>
@@ -5321,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G148" t="n">
-        <v>746072266.8812487</v>
+        <v>745937345.8286808</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>5519517609.785821</v>
+        <v>5519352652.68702</v>
       </c>
     </row>
     <row r="149">
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D151" t="n">
         <v>2837951661.945522</v>
@@ -5420,16 +5420,16 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G151" t="n">
-        <v>1541111048.730316</v>
+        <v>1541048698.362387</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>4454968927.987103</v>
+        <v>4454879451.218196</v>
       </c>
     </row>
     <row r="152">
@@ -5555,13 +5555,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G155" t="n">
-        <v>242860427.753914</v>
+        <v>242815538.3538235</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>2180992792.572977</v>
+        <v>2180947903.172886</v>
       </c>
     </row>
     <row r="156">
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D164" t="n">
         <v>80799421.41225857</v>
@@ -5849,16 +5849,16 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G164" t="n">
-        <v>139148495.0698583</v>
+        <v>139118921.5002254</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>235662062.7869447</v>
+        <v>235626873.4950591</v>
       </c>
     </row>
     <row r="165">
@@ -5885,13 +5885,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G165" t="n">
-        <v>22951543.55282304</v>
+        <v>22945683.7072297</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>56420748.32609852</v>
+        <v>56414888.48050517</v>
       </c>
     </row>
     <row r="166">
@@ -5918,13 +5918,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G166" t="n">
-        <v>916936578.664454</v>
+        <v>916829325.6586648</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>4272393269.370193</v>
+        <v>4272286016.364403</v>
       </c>
     </row>
     <row r="167">
@@ -7295,7 +7295,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D14" t="n">
-        <v>714766412.0522585</v>
+        <v>714420470.4278558</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7304,13 +7304,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G14" t="n">
-        <v>837168746.2665619</v>
+        <v>837083820.9295076</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2856386319.224244</v>
+        <v>2855955452.262787</v>
       </c>
     </row>
     <row r="15">
@@ -7361,22 +7361,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D16" t="n">
-        <v>425274971.2724407</v>
+        <v>424670573.5846787</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G16" t="n">
-        <v>763928968.6159604</v>
+        <v>763780594.8045214</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4158391669.670252</v>
+        <v>3976914439.071449</v>
       </c>
     </row>
     <row r="17">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>17691648.3787363</v>
+        <v>17657630.50121331</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>29872705.4401067</v>
+        <v>29864354.37879831</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>47564353.81884299</v>
+        <v>47521984.88001162</v>
       </c>
     </row>
     <row r="22">
@@ -8417,22 +8417,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>7745972.435273441</v>
+        <v>7738157.338810182</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G48" t="n">
-        <v>9826520.719479764</v>
+        <v>9824602.188564615</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>247329755.5574531</v>
+        <v>247231065.0544724</v>
       </c>
     </row>
     <row r="49">
@@ -8447,25 +8447,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D49" t="n">
-        <v>146601108.8743423</v>
+        <v>146329694.7608774</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G49" t="n">
-        <v>282421094.6895938</v>
+        <v>282354465.1387061</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>493010917.3317074</v>
+        <v>492648098.6679009</v>
       </c>
     </row>
     <row r="50">
@@ -8483,7 +8483,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D50" t="n">
-        <v>2275645370.143687</v>
+        <v>2273346736.939631</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -8492,13 +8492,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G50" t="n">
-        <v>2996390098.03867</v>
+        <v>2995825805.72503</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>15367820294.34709</v>
+        <v>15364957368.8294</v>
       </c>
     </row>
     <row r="51">
@@ -8516,7 +8516,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D51" t="n">
-        <v>176269732.8179283</v>
+        <v>176112732.5492032</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -8525,13 +8525,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G51" t="n">
-        <v>296201906.4905531</v>
+        <v>296163364.4366384</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2595101643.384347</v>
+        <v>2594906101.061707</v>
       </c>
     </row>
     <row r="52">
@@ -8681,7 +8681,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D56" t="n">
-        <v>742710702.850801</v>
+        <v>741787933.493623</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -8690,13 +8690,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G56" t="n">
-        <v>1221846322.040213</v>
+        <v>1221619791.050145</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3400338574.018347</v>
+        <v>3399189273.671101</v>
       </c>
     </row>
     <row r="57">
@@ -8711,25 +8711,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D57" t="n">
-        <v>5113525.748619992</v>
+        <v>5103388.851401196</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G57" t="n">
-        <v>8717530.691254789</v>
+        <v>8715042.180615235</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>72167887.42648931</v>
+        <v>71427840.60488831</v>
       </c>
     </row>
     <row r="58">
@@ -8813,7 +8813,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D60" t="n">
-        <v>78046648.26917876</v>
+        <v>77928943.00207147</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -8822,13 +8822,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G60" t="n">
-        <v>115891292.5385626</v>
+        <v>115862397.0290979</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1368150422.324229</v>
+        <v>1368003821.547657</v>
       </c>
     </row>
     <row r="61">
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2207870852.406487</v>
+        <v>2206400996.976586</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -8921,13 +8921,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G63" t="n">
-        <v>2733181057.632134</v>
+        <v>2732820222.280156</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>9640520499.347654</v>
+        <v>9638689808.565775</v>
       </c>
     </row>
     <row r="64">
@@ -9209,7 +9209,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D72" t="n">
-        <v>46598158.71800169</v>
+        <v>46532748.18562557</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -9218,13 +9218,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G72" t="n">
-        <v>68071152.68254811</v>
+        <v>68055095.02681348</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>208457063.1696169</v>
+        <v>208375594.9815061</v>
       </c>
     </row>
     <row r="73">
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>21265926.96263812</v>
+        <v>21233126.04019459</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>31929561.55115088</v>
+        <v>31921509.2405941</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>53195488.51378901</v>
+        <v>53154635.28078869</v>
       </c>
     </row>
     <row r="81">
@@ -9536,25 +9536,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D82" t="n">
-        <v>100979984.0033045</v>
+        <v>100823303.9344605</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G82" t="n">
-        <v>172979072.4900241</v>
+        <v>172940609.0420964</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>648891479.7446575</v>
+        <v>644840027.5637646</v>
       </c>
     </row>
     <row r="83">
@@ -9671,7 +9671,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D86" t="n">
-        <v>689331642.0359846</v>
+        <v>688327523.7085592</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -9680,13 +9680,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G86" t="n">
-        <v>1534017407.444745</v>
+        <v>1533770906.065947</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>16103398812.89416</v>
+        <v>16102148193.18794</v>
       </c>
     </row>
     <row r="87">
@@ -9836,7 +9836,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D91" t="n">
-        <v>1151482628.879023</v>
+        <v>1150435548.600482</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -9845,13 +9845,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G91" t="n">
-        <v>1865568780.357352</v>
+        <v>1865311732.233318</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>7009768416.721896</v>
+        <v>7008464288.319321</v>
       </c>
     </row>
     <row r="92">
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>15265995.55273783</v>
+        <v>15252424.61907046</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>24748411.34659357</v>
+        <v>24745079.81307882</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>40014406.8993314</v>
+        <v>39997504.43214928</v>
       </c>
     </row>
     <row r="110">
@@ -10463,7 +10463,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D110" t="n">
-        <v>312829996.2127462</v>
+        <v>312582065.2010871</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -10472,13 +10472,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G110" t="n">
-        <v>565135654.5170014</v>
+        <v>565074789.8414432</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>6719914107.532713</v>
+        <v>6719605311.845496</v>
       </c>
     </row>
     <row r="111">
@@ -10493,25 +10493,25 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D111" t="n">
-        <v>18940225.66326296</v>
+        <v>18932717.85769441</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G111" t="n">
-        <v>29494643.0359665</v>
+        <v>29492799.94200651</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>137833883.9634641</v>
+        <v>136710576.1337682</v>
       </c>
     </row>
     <row r="112">
@@ -10856,25 +10856,25 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D122" t="n">
-        <v>8520477.10107418</v>
+        <v>8498243.277658716</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G122" t="n">
-        <v>22956841.54933538</v>
+        <v>22951383.35981909</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>123071859.4516191</v>
+        <v>122381030.0112133</v>
       </c>
     </row>
     <row r="123">
@@ -11252,10 +11252,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D134" t="n">
-        <v>1435536287.855133</v>
+        <v>1434452477.478903</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -11264,13 +11264,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G134" t="n">
-        <v>2350345449.396501</v>
+        <v>2350079384.387229</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>7635421395.622916</v>
+        <v>6421819258.984484</v>
       </c>
     </row>
     <row r="135">
@@ -11714,25 +11714,25 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D148" t="n">
-        <v>444773708.7856682</v>
+        <v>444311964.117672</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G148" t="n">
-        <v>599992201.6680554</v>
+        <v>599878847.799089</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>3301461184.445766</v>
+        <v>3273533670.193294</v>
       </c>
     </row>
     <row r="149">
@@ -11813,25 +11813,25 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D151" t="n">
-        <v>1952029704.187203</v>
+        <v>1951816320.512891</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G151" t="n">
-        <v>1308852449.566145</v>
+        <v>1308800065.929183</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>3319744630.433887</v>
+        <v>3319456072.887558</v>
       </c>
     </row>
     <row r="152">
@@ -11948,7 +11948,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D155" t="n">
-        <v>146745201.4690755</v>
+        <v>146591575.027932</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -11957,13 +11957,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G155" t="n">
-        <v>194239113.1336167</v>
+        <v>194201399.3218802</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1837700968.573157</v>
+        <v>1837509628.320277</v>
       </c>
     </row>
     <row r="156">
@@ -12242,25 +12242,25 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D164" t="n">
-        <v>51891101.4048551</v>
+        <v>51789890.82406195</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G164" t="n">
-        <v>111168260.0978204</v>
+        <v>111143413.8749868</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>175245103.3718761</v>
+        <v>175114328.5214192</v>
       </c>
     </row>
     <row r="165">
@@ -12278,7 +12278,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D165" t="n">
-        <v>11355836.07437777</v>
+        <v>11335781.73588492</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -12287,13 +12287,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G165" t="n">
-        <v>17937884.93538512</v>
+        <v>17932961.78842689</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>37414692.93213052</v>
+        <v>37389715.44667943</v>
       </c>
     </row>
     <row r="166">
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>440221477.5979795</v>
+        <v>439854422.1784795</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -12320,13 +12320,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G166" t="n">
-        <v>754674534.8944092</v>
+        <v>754584426.3240038</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>3272905649.943885</v>
+        <v>3272448485.953979</v>
       </c>
     </row>
     <row r="167">
@@ -13697,7 +13697,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D14" t="n">
-        <v>834108722.3351675</v>
+        <v>833894307.5478402</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -13706,13 +13706,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G14" t="n">
-        <v>901219722.8014569</v>
+        <v>901127196.9288094</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3543101136.291123</v>
+        <v>3542794195.631148</v>
       </c>
     </row>
     <row r="15">
@@ -13763,22 +13763,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D16" t="n">
-        <v>506586274.4060569</v>
+        <v>506211668.4247549</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G16" t="n">
-        <v>834363536.3668617</v>
+        <v>834201883.5921113</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4702047526.456399</v>
+        <v>4471782507.612556</v>
       </c>
     </row>
     <row r="17">
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>21953545.56337618</v>
+        <v>21932461.26631591</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13937,13 +13937,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>33086050.20495406</v>
+        <v>33076951.75139599</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>55039595.76833024</v>
+        <v>55009413.0177119</v>
       </c>
     </row>
     <row r="22">
@@ -14819,22 +14819,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>9296854.408497756</v>
+        <v>9292010.607902771</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G48" t="n">
-        <v>10723781.76590222</v>
+        <v>10721691.53284242</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>275844526.6857559</v>
+        <v>275740674.431596</v>
       </c>
     </row>
     <row r="49">
@@ -14849,25 +14849,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D49" t="n">
-        <v>178674880.4808883</v>
+        <v>178506657.8811457</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G49" t="n">
-        <v>310646400.5027921</v>
+        <v>310573807.828405</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>560569700.0051305</v>
+        <v>560301892.4513838</v>
       </c>
     </row>
     <row r="50">
@@ -14885,7 +14885,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D50" t="n">
-        <v>2710212558.77474</v>
+        <v>2708787864.795106</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -14894,13 +14894,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G50" t="n">
-        <v>3282700057.167694</v>
+        <v>3282085262.566237</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>18840646701.24226</v>
+        <v>18838607212.66117</v>
       </c>
     </row>
     <row r="51">
@@ -14918,7 +14918,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D51" t="n">
-        <v>205548163.2622397</v>
+        <v>205450854.4192026</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -14927,13 +14927,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G51" t="n">
-        <v>320586009.3544223</v>
+        <v>320544017.9146967</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3185081132.99879</v>
+        <v>3184941832.716026</v>
       </c>
     </row>
     <row r="52">
@@ -15083,7 +15083,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D56" t="n">
-        <v>869078538.9972538</v>
+        <v>868506606.1001557</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -15092,13 +15092,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G56" t="n">
-        <v>1337476845.220948</v>
+        <v>1337230040.459675</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>4480921074.788662</v>
+        <v>4480102337.13029</v>
       </c>
     </row>
     <row r="57">
@@ -15113,25 +15113,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D57" t="n">
-        <v>6377352.920076165</v>
+        <v>6371070.066241852</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G57" t="n">
-        <v>9663242.477042887</v>
+        <v>9660531.252966492</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>92993838.05735482</v>
+        <v>92533987.67322309</v>
       </c>
     </row>
     <row r="58">
@@ -15215,7 +15215,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D60" t="n">
-        <v>95316146.84230922</v>
+        <v>95243193.06041701</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -15224,13 +15224,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G60" t="n">
-        <v>127965133.4856603</v>
+        <v>127933651.9240728</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1532012842.384988</v>
+        <v>1531908407.041508</v>
       </c>
     </row>
     <row r="61">
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2591670515.630512</v>
+        <v>2590759498.519032</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -15323,13 +15323,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G63" t="n">
-        <v>2962227061.574959</v>
+        <v>2961833932.657465</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>10527179715.94625</v>
+        <v>10525875569.91727</v>
       </c>
     </row>
     <row r="64">
@@ -15611,7 +15611,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D72" t="n">
-        <v>57030898.03258886</v>
+        <v>56990356.55275796</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -15620,13 +15620,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G72" t="n">
-        <v>75168182.98506813</v>
+        <v>75150688.22247951</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>248877932.0417738</v>
+        <v>248819895.7993543</v>
       </c>
     </row>
     <row r="73">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>26185083.36818747</v>
+        <v>26164753.34047827</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -15884,13 +15884,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>35315202.76136658</v>
+        <v>35306429.7957601</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>61500286.12955405</v>
+        <v>61471183.13623837</v>
       </c>
     </row>
     <row r="81">
@@ -15938,25 +15938,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D82" t="n">
-        <v>119914972.7512848</v>
+        <v>119817862.3682899</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G82" t="n">
-        <v>190180851.4693305</v>
+        <v>190138945.6705666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>790737723.8664556</v>
+        <v>788196239.864646</v>
       </c>
     </row>
     <row r="83">
@@ -16073,7 +16073,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D86" t="n">
-        <v>799026739.3736469</v>
+        <v>798404386.3451608</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -16082,13 +16082,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G86" t="n">
-        <v>1666275553.672514</v>
+        <v>1666006991.239049</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>17031057153.97751</v>
+        <v>17030166238.51556</v>
       </c>
     </row>
     <row r="87">
@@ -16238,7 +16238,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D91" t="n">
-        <v>1340075915.726344</v>
+        <v>1339426934.859628</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -16247,13 +16247,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G91" t="n">
-        <v>2025818858.59007</v>
+        <v>2025538805.512701</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>7746877338.819698</v>
+        <v>7745948304.875612</v>
       </c>
     </row>
     <row r="92">
@@ -16832,7 +16832,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D109" t="n">
-        <v>17939713.8843772</v>
+        <v>17931302.61307919</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -16841,13 +16841,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>26871598.69303605</v>
+        <v>26867968.99833717</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>49395929.67210869</v>
+        <v>49383888.70611182</v>
       </c>
     </row>
     <row r="110">
@@ -16865,7 +16865,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D110" t="n">
-        <v>355572762.2428184</v>
+        <v>355419094.4810145</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -16874,13 +16874,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G110" t="n">
-        <v>611697398.8788244</v>
+        <v>611631087.0169611</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>7362348038.517241</v>
+        <v>7362128058.893575</v>
       </c>
     </row>
     <row r="111">
@@ -16895,25 +16895,25 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D111" t="n">
-        <v>21622485.87350532</v>
+        <v>21617832.53195657</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G111" t="n">
-        <v>31631515.42668084</v>
+        <v>31629507.38193312</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>171168537.8857664</v>
+        <v>170471433.3279445</v>
       </c>
     </row>
     <row r="112">
@@ -17258,25 +17258,25 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D122" t="n">
-        <v>10414029.41025744</v>
+        <v>10400248.87567352</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G122" t="n">
-        <v>25182872.68436745</v>
+        <v>25176926.00501841</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>148267584.5666685</v>
+        <v>147829634.8089627</v>
       </c>
     </row>
     <row r="123">
@@ -17654,10 +17654,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D134" t="n">
-        <v>1643721590.824049</v>
+        <v>1643049844.624892</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -17666,13 +17666,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G134" t="n">
-        <v>2538741387.892073</v>
+        <v>2538451510.948185</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>8775234167.635254</v>
+        <v>7562020283.239279</v>
       </c>
     </row>
     <row r="135">
@@ -18116,25 +18116,25 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D148" t="n">
-        <v>526108096.1325513</v>
+        <v>525821906.5623922</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G148" t="n">
-        <v>654904068.2112787</v>
+        <v>654780569.5475359</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>4144464792.384366</v>
+        <v>4127090210.889023</v>
       </c>
     </row>
     <row r="149">
@@ -18215,25 +18215,25 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D151" t="n">
-        <v>2286003572.026678</v>
+        <v>2285871316.721391</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G151" t="n">
-        <v>1384953101.386245</v>
+        <v>1384896029.587763</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>3736497268.874738</v>
+        <v>3736283111.885573</v>
       </c>
     </row>
     <row r="152">
@@ -18350,7 +18350,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D155" t="n">
-        <v>174062770.3404473</v>
+        <v>173967552.5973888</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -18359,13 +18359,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G155" t="n">
-        <v>212600268.5077634</v>
+        <v>212559179.43514</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1970725651.340053</v>
+        <v>1970589344.524371</v>
       </c>
     </row>
     <row r="156">
@@ -18644,25 +18644,25 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D164" t="n">
-        <v>62960476.80213422</v>
+        <v>62897746.43485475</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G164" t="n">
-        <v>121965408.5314689</v>
+        <v>121938338.6542166</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>198494134.9773602</v>
+        <v>198399194.4364776</v>
       </c>
     </row>
     <row r="165">
@@ -18680,7 +18680,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D165" t="n">
-        <v>14093408.05024763</v>
+        <v>14080978.36148046</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -18689,13 +18689,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G165" t="n">
-        <v>19878120.86338568</v>
+        <v>19872757.11112654</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>44803736.10770902</v>
+        <v>44785942.66668272</v>
       </c>
     </row>
     <row r="166">
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>510147499.0530168</v>
+        <v>509919997.9252028</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -18722,13 +18722,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G166" t="n">
-        <v>815702557.57462</v>
+        <v>815604384.5864522</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>3672613037.132034</v>
+        <v>3672287363.016052</v>
       </c>
     </row>
     <row r="167">
